--- a/Data/Test/Test/Data_Test.xlsx
+++ b/Data/Test/Test/Data_Test.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Test\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC576D9-6D95-400A-9D2A-CEE56F492AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C02718-8DAF-4C12-8911-ECE196F5ED1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Images" sheetId="5" r:id="rId1"/>
+    <sheet name="Board images" sheetId="5" r:id="rId1"/>
     <sheet name="Components" sheetId="1" r:id="rId2"/>
-    <sheet name="Component local files" sheetId="7" r:id="rId3"/>
-    <sheet name="Component links" sheetId="8" r:id="rId4"/>
-    <sheet name="Component highlights" sheetId="6" r:id="rId5"/>
+    <sheet name="Component highlights" sheetId="6" r:id="rId3"/>
+    <sheet name="Component local files" sheetId="7" r:id="rId4"/>
+    <sheet name="Component links" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -312,10 +312,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -633,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB56770-8233-4B8D-A81F-EDDC9713B054}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -665,12 +665,12 @@
         <v>29</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:8" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -720,7 +720,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>46</v>
       </c>
     </row>
@@ -833,6 +833,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD30A18-04B8-42E0-9E13-F4ED24029528}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="4" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1525</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1683</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5" si="0">G5-C5</f>
+        <v>204</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5" si="1">H5-D5</f>
+        <v>349</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1729</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2032</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H5">
+    <sortCondition ref="B5"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -884,7 +973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9014B11-7294-4050-ABF4-8B4EFBD7F103}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -961,93 +1050,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD30A18-04B8-42E0-9E13-F4ED24029528}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1525</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1683</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" ref="E5" si="0">G5-C5</f>
-        <v>204</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" ref="F5" si="1">H5-D5</f>
-        <v>349</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1729</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2032</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H5">
-    <sortCondition ref="B5"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Data/Test/Test/Data_Test.xlsx
+++ b/Data/Test/Test/Data_Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Test\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Release\Data\Test\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C02718-8DAF-4C12-8911-ECE196F5ED1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C03B1A1-6D4F-4332-A4CB-9E0B55D237B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board images" sheetId="5" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>CIA 1</t>
   </si>
@@ -111,15 +109,6 @@
     <t>URL3</t>
   </si>
   <si>
-    <t>http://dennis.dk/1</t>
-  </si>
-  <si>
-    <t>http://dennis.dk/2</t>
-  </si>
-  <si>
-    <t>http://dennis.dk/3</t>
-  </si>
-  <si>
     <t>Datasheet for 2364</t>
   </si>
   <si>
@@ -181,6 +170,9 @@
   </si>
   <si>
     <t>https://learn.microsoft.com/en-us/dotnet/api/system.windows.media.colors?view=windowsdesktop-7.0</t>
+  </si>
+  <si>
+    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox</t>
   </si>
 </sst>
 </file>
@@ -633,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB56770-8233-4B8D-A81F-EDDC9713B054}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -644,7 +636,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -662,11 +654,11 @@
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -680,24 +672,24 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>19</v>
@@ -712,7 +704,7 @@
         <v>0.65</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -721,7 +713,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="H6" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -730,7 +722,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -765,13 +757,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -800,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -817,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>17</v>
@@ -836,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD30A18-04B8-42E0-9E13-F4ED24029528}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -850,13 +842,13 @@
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -886,7 +878,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>16</v>
@@ -935,13 +927,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -962,10 +954,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -987,13 +979,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1006,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,7 +1009,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1028,7 +1020,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1039,15 +1031,10 @@
         <v>22</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{25F2BC45-B037-48BE-AC47-AA6D09E2B7CF}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{E1CB8F1D-11C4-4A36-BF96-35282C962415}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{DBDE6EA0-7AE5-4405-AF97-F064C1CD294F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Test/Test/Data_Test.xlsx
+++ b/Data/Test/Test/Data_Test.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Release\Data\Test\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Test\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C03B1A1-6D4F-4332-A4CB-9E0B55D237B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FC47C4-FBBD-4F7A-BB1A-4BA11352017B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board images" sheetId="5" r:id="rId1"/>
-    <sheet name="Components" sheetId="1" r:id="rId2"/>
-    <sheet name="Component highlights" sheetId="6" r:id="rId3"/>
-    <sheet name="Component local files" sheetId="7" r:id="rId4"/>
-    <sheet name="Component links" sheetId="8" r:id="rId5"/>
+    <sheet name="Board local files" sheetId="9" r:id="rId2"/>
+    <sheet name="Board links" sheetId="10" r:id="rId3"/>
+    <sheet name="Components" sheetId="1" r:id="rId4"/>
+    <sheet name="Component highlights" sheetId="6" r:id="rId5"/>
+    <sheet name="Component local files" sheetId="7" r:id="rId6"/>
+    <sheet name="Component links" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>CIA 1</t>
   </si>
@@ -173,13 +175,83 @@
   </si>
   <si>
     <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Board </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>310378</t>
+    </r>
+  </si>
+  <si>
+    <t>Board links</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Ressources</t>
+  </si>
+  <si>
+    <t>Zimmers Commodore 128</t>
+  </si>
+  <si>
+    <t>https://www.zimmers.net/anonftp/pub/cbm/schematics/computers/c128/</t>
+  </si>
+  <si>
+    <t>My Old Computer</t>
+  </si>
+  <si>
+    <t>https://myoldcomputer.nl/technical-info/mainboards/commodore-128/board-310379-c128d/</t>
+  </si>
+  <si>
+    <t>Troubleshooting</t>
+  </si>
+  <si>
+    <t>Scope on the C64 (Sven Petersen)</t>
+  </si>
+  <si>
+    <t>http://tech.guitarsite.de/c64_scope.html</t>
+  </si>
+  <si>
+    <t>Ray Carlsen</t>
+  </si>
+  <si>
+    <t>https://portcommodore.com/rcarlsen/cbm/</t>
+  </si>
+  <si>
+    <t>Forums</t>
+  </si>
+  <si>
+    <t>Lemon64; Other 8-bit Commodore computers</t>
+  </si>
+  <si>
+    <t>https://www.lemon64.com/forum/viewforum.php?f=15</t>
+  </si>
+  <si>
+    <t>Board local files</t>
+  </si>
+  <si>
+    <t>Commodore 128/128D Service Manual (1987-Nov)</t>
+  </si>
+  <si>
+    <t>Local files\Commodore_128_128D_Service_Manual_314001-08_(1987_Nov).pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +277,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -625,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB56770-8233-4B8D-A81F-EDDC9713B054}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -738,6 +818,168 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626A4C85-2973-47B3-B617-512838EC74A9}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="3" max="3" width="75.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="10" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2A1D60-FA9F-4635-8405-19906B895924}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="86.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="10" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -824,7 +1066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD30A18-04B8-42E0-9E13-F4ED24029528}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -913,7 +1155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -965,7 +1207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9014B11-7294-4050-ABF4-8B4EFBD7F103}">
   <dimension ref="A1:C7"/>
   <sheetViews>
